--- a/Mobile Dev Test Plan.xlsx
+++ b/Mobile Dev Test Plan.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="June 03, 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="May 20, 2016" sheetId="2" r:id="rId2"/>
+    <sheet name="June 13, 2017" sheetId="3" r:id="rId2"/>
+    <sheet name="May 20, 2016" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>Test case plan</t>
   </si>
@@ -164,6 +166,12 @@
   </si>
   <si>
     <t>User get in a win or lose state</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Focus issue.</t>
   </si>
 </sst>
 </file>
@@ -346,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +374,15 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,13 +395,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,7 +712,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -719,30 +730,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>42889</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -788,8 +799,8 @@
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -804,11 +815,11 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -823,11 +834,11 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -842,11 +853,11 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -861,7 +872,7 @@
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -875,7 +886,7 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -889,7 +900,7 @@
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -924,8 +935,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>42899</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,30 +1185,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>42510</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="12">
+        <v>42534</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">

--- a/Mobile Dev Test Plan.xlsx
+++ b/Mobile Dev Test Plan.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="June 03, 2017" sheetId="1" r:id="rId1"/>
     <sheet name="June 13, 2017" sheetId="3" r:id="rId2"/>
-    <sheet name="May 20, 2016" sheetId="2" r:id="rId3"/>
+    <sheet name="June 14, 2017" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>Test case plan</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Tested by</t>
   </si>
   <si>
-    <t>Android 5.0 Galaxy Note 5 (HW)</t>
-  </si>
-  <si>
-    <t>Android 4.1 (Emulator)</t>
-  </si>
-  <si>
     <t>Android 4.0 (Emulator)</t>
   </si>
   <si>
@@ -71,55 +66,9 @@
     <t>After tapping the app icon, the app loads within 3 seconds</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Existing User logs in</t>
-  </si>
-  <si>
-    <t>A user with a valid e-mail and pass can enter them into EditTexts and log in successfully</t>
-  </si>
-  <si>
-    <t>Non-user cannot log in</t>
-  </si>
-  <si>
-    <t>A user without a valid e-mail and/or pass cannot log in</t>
-  </si>
-  <si>
-    <t>Create Account</t>
-  </si>
-  <si>
-    <t>New user can create account</t>
-  </si>
-  <si>
-    <t>A user can successfully create an account</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bug fixed by Sam on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5/18/16</t>
-    </r>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
@@ -172,13 +121,25 @@
   </si>
   <si>
     <t>Focus issue.</t>
+  </si>
+  <si>
+    <t>User is rewarded based on match</t>
+  </si>
+  <si>
+    <t>User wins or loses based on bank amount after reward</t>
+  </si>
+  <si>
+    <t>Focus issue. Used isEnabled. Empty string issue used try catch.</t>
+  </si>
+  <si>
+    <t>LG V10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +157,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,11 +305,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -368,10 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -380,22 +333,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,30 +683,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>42889</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -775,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -785,19 +738,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -807,16 +760,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -826,16 +779,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -845,16 +798,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -864,16 +817,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,30 +906,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>42899</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -998,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1008,19 +961,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1030,19 +983,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1052,22 +1005,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1077,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -1096,16 +1049,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,13 +1066,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,13 +1080,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,50 +1120,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>42534</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>42899</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1230,125 +1183,162 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
